--- a/02 - Exemple_Maquette/SU_Suspension/params.xlsx
+++ b/02 - Exemple_Maquette/SU_Suspension/params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mik75\Documents\S8-PLMmaquettage\02 - Exemple_Maquette\SU_Suspension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42963C7F-3870-47C3-BA72-4E4114A9AA4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75692EB4-CB03-4D9D-A66E-74F304BDF0CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6780" yWindow="1185" windowWidth="17805" windowHeight="11505" xr2:uid="{C1D3470F-B8EA-47E3-BA2C-3E90D6507FF5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>AArm_tubeOffset_FU (mm)</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>AArm_tube_Rext (mm)</t>
+  </si>
+  <si>
+    <t>entretoise_roker (mm)</t>
+  </si>
+  <si>
+    <t>entretoise_upright (mm)</t>
   </si>
 </sst>
 </file>
@@ -407,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497D7EFB-D4A5-49A2-922B-BCB3E28C5B81}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,6 +481,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
